--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Lamb1-Itgb1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Lamb1-Itgb1.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>25.38222733333333</v>
+        <v>13.843044</v>
       </c>
       <c r="H2">
-        <v>76.146682</v>
+        <v>41.529132</v>
       </c>
       <c r="I2">
-        <v>0.1760862452187379</v>
+        <v>0.1139869403149299</v>
       </c>
       <c r="J2">
-        <v>0.1760862452187379</v>
+        <v>0.1139869403149299</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>112.513392</v>
+        <v>61.04160633333334</v>
       </c>
       <c r="N2">
-        <v>337.540176</v>
+        <v>183.124819</v>
       </c>
       <c r="O2">
-        <v>0.3275312977368564</v>
+        <v>0.2043613460574534</v>
       </c>
       <c r="P2">
-        <v>0.3275312977368564</v>
+        <v>0.2043613460574534</v>
       </c>
       <c r="Q2">
-        <v>2855.840493788448</v>
+        <v>845.0016423030121</v>
       </c>
       <c r="R2">
-        <v>25702.56444409603</v>
+        <v>7605.014780727109</v>
       </c>
       <c r="S2">
-        <v>0.05767375641010355</v>
+        <v>0.02329452455572967</v>
       </c>
       <c r="T2">
-        <v>0.05767375641010355</v>
+        <v>0.02329452455572967</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>25.38222733333333</v>
+        <v>13.843044</v>
       </c>
       <c r="H3">
-        <v>76.146682</v>
+        <v>41.529132</v>
       </c>
       <c r="I3">
-        <v>0.1760862452187379</v>
+        <v>0.1139869403149299</v>
       </c>
       <c r="J3">
-        <v>0.1760862452187379</v>
+        <v>0.1139869403149299</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>318.943398</v>
       </c>
       <c r="O3">
-        <v>0.3094859589441663</v>
+        <v>0.3559304658284363</v>
       </c>
       <c r="P3">
-        <v>0.3094859589441664</v>
+        <v>0.3559304658284363</v>
       </c>
       <c r="Q3">
-        <v>2698.497944833937</v>
+        <v>1471.715830674504</v>
       </c>
       <c r="R3">
-        <v>24286.48150350543</v>
+        <v>13245.44247607054</v>
       </c>
       <c r="S3">
-        <v>0.05449622045839873</v>
+        <v>0.04057142476465115</v>
       </c>
       <c r="T3">
-        <v>0.05449622045839874</v>
+        <v>0.04057142476465116</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>25.38222733333333</v>
+        <v>13.843044</v>
       </c>
       <c r="H4">
-        <v>76.146682</v>
+        <v>41.529132</v>
       </c>
       <c r="I4">
-        <v>0.1760862452187379</v>
+        <v>0.1139869403149299</v>
       </c>
       <c r="J4">
-        <v>0.1760862452187379</v>
+        <v>0.1139869403149299</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>124.6916553333333</v>
+        <v>131.3384093333333</v>
       </c>
       <c r="N4">
-        <v>374.074966</v>
+        <v>394.015228</v>
       </c>
       <c r="O4">
-        <v>0.3629827433189773</v>
+        <v>0.4397081881141102</v>
       </c>
       <c r="P4">
-        <v>0.3629827433189773</v>
+        <v>0.4397081881141103</v>
       </c>
       <c r="Q4">
-        <v>3164.951942240313</v>
+        <v>1818.123379291344</v>
       </c>
       <c r="R4">
-        <v>28484.56748016281</v>
+        <v>16363.11041362209</v>
       </c>
       <c r="S4">
-        <v>0.06391626835023563</v>
+        <v>0.05012099099454903</v>
       </c>
       <c r="T4">
-        <v>0.06391626835023566</v>
+        <v>0.05012099099454904</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>284.321061</v>
       </c>
       <c r="I5">
-        <v>0.6574814128880592</v>
+        <v>0.7803892412315415</v>
       </c>
       <c r="J5">
-        <v>0.6574814128880593</v>
+        <v>0.7803892412315415</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>112.513392</v>
+        <v>61.04160633333334</v>
       </c>
       <c r="N5">
-        <v>337.540176</v>
+        <v>183.124819</v>
       </c>
       <c r="O5">
-        <v>0.3275312977368564</v>
+        <v>0.2043613460574534</v>
       </c>
       <c r="P5">
-        <v>0.3275312977368564</v>
+        <v>0.2043613460574534</v>
       </c>
       <c r="Q5">
-        <v>10663.3089967163</v>
+        <v>5785.138092612551</v>
       </c>
       <c r="R5">
-        <v>95969.78097044672</v>
+        <v>52066.24283351297</v>
       </c>
       <c r="S5">
-        <v>0.2153457404010879</v>
+        <v>0.1594813957868326</v>
       </c>
       <c r="T5">
-        <v>0.2153457404010879</v>
+        <v>0.1594813957868326</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>284.321061</v>
       </c>
       <c r="I6">
-        <v>0.6574814128880592</v>
+        <v>0.7803892412315415</v>
       </c>
       <c r="J6">
-        <v>0.6574814128880593</v>
+        <v>0.7803892412315415</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>318.943398</v>
       </c>
       <c r="O6">
-        <v>0.3094859589441663</v>
+        <v>0.3559304658284363</v>
       </c>
       <c r="P6">
-        <v>0.3094859589441664</v>
+        <v>0.3559304658284363</v>
       </c>
       <c r="Q6">
         <v>10075.81392425614</v>
@@ -818,10 +818,10 @@
         <v>90682.32531830527</v>
       </c>
       <c r="S6">
-        <v>0.2034812655556263</v>
+        <v>0.2777643061590425</v>
       </c>
       <c r="T6">
-        <v>0.2034812655556264</v>
+        <v>0.2777643061590426</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>284.321061</v>
       </c>
       <c r="I7">
-        <v>0.6574814128880592</v>
+        <v>0.7803892412315415</v>
       </c>
       <c r="J7">
-        <v>0.6574814128880593</v>
+        <v>0.7803892412315415</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>124.6916553333333</v>
+        <v>131.3384093333333</v>
       </c>
       <c r="N7">
-        <v>374.074966</v>
+        <v>394.015228</v>
       </c>
       <c r="O7">
-        <v>0.3629827433189773</v>
+        <v>0.4397081881141102</v>
       </c>
       <c r="P7">
-        <v>0.3629827433189773</v>
+        <v>0.4397081881141103</v>
       </c>
       <c r="Q7">
-        <v>11817.48791407321</v>
+        <v>12447.42529723521</v>
       </c>
       <c r="R7">
-        <v>106357.3912266589</v>
+        <v>112026.8276751169</v>
       </c>
       <c r="S7">
-        <v>0.2386544069313449</v>
+        <v>0.3431435392856664</v>
       </c>
       <c r="T7">
-        <v>0.238654406931345</v>
+        <v>0.3431435392856664</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>23.99065033333333</v>
+        <v>12.827392</v>
       </c>
       <c r="H8">
-        <v>71.971951</v>
+        <v>38.482176</v>
       </c>
       <c r="I8">
-        <v>0.1664323418932028</v>
+        <v>0.1056238184535286</v>
       </c>
       <c r="J8">
-        <v>0.1664323418932028</v>
+        <v>0.1056238184535286</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>112.513392</v>
+        <v>61.04160633333334</v>
       </c>
       <c r="N8">
-        <v>337.540176</v>
+        <v>183.124819</v>
       </c>
       <c r="O8">
-        <v>0.3275312977368564</v>
+        <v>0.2043613460574534</v>
       </c>
       <c r="P8">
-        <v>0.3275312977368564</v>
+        <v>0.2043613460574534</v>
       </c>
       <c r="Q8">
-        <v>2699.269445289264</v>
+        <v>783.0046127473495</v>
       </c>
       <c r="R8">
-        <v>24293.42500760337</v>
+        <v>7047.041514726146</v>
       </c>
       <c r="S8">
-        <v>0.05451180092566488</v>
+        <v>0.0215854257148912</v>
       </c>
       <c r="T8">
-        <v>0.05451180092566488</v>
+        <v>0.0215854257148912</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>23.99065033333333</v>
+        <v>12.827392</v>
       </c>
       <c r="H9">
-        <v>71.971951</v>
+        <v>38.482176</v>
       </c>
       <c r="I9">
-        <v>0.1664323418932028</v>
+        <v>0.1056238184535286</v>
       </c>
       <c r="J9">
-        <v>0.1664323418932028</v>
+        <v>0.1056238184535286</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>318.943398</v>
       </c>
       <c r="O9">
-        <v>0.3094859589441663</v>
+        <v>0.3559304658284363</v>
       </c>
       <c r="P9">
-        <v>0.3094859589441664</v>
+        <v>0.3559304658284363</v>
       </c>
       <c r="Q9">
-        <v>2550.553179181055</v>
+        <v>1363.737330652672</v>
       </c>
       <c r="R9">
-        <v>22954.9786126295</v>
+        <v>12273.63597587405</v>
       </c>
       <c r="S9">
-        <v>0.05150847293014121</v>
+        <v>0.03759473490474263</v>
       </c>
       <c r="T9">
-        <v>0.05150847293014123</v>
+        <v>0.03759473490474264</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>23.99065033333333</v>
+        <v>12.827392</v>
       </c>
       <c r="H10">
-        <v>71.971951</v>
+        <v>38.482176</v>
       </c>
       <c r="I10">
-        <v>0.1664323418932028</v>
+        <v>0.1056238184535286</v>
       </c>
       <c r="J10">
-        <v>0.1664323418932028</v>
+        <v>0.1056238184535286</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>124.6916553333333</v>
+        <v>131.3384093333333</v>
       </c>
       <c r="N10">
-        <v>374.074966</v>
+        <v>394.015228</v>
       </c>
       <c r="O10">
-        <v>0.3629827433189773</v>
+        <v>0.4397081881141102</v>
       </c>
       <c r="P10">
-        <v>0.3629827433189773</v>
+        <v>0.4397081881141103</v>
       </c>
       <c r="Q10">
-        <v>2991.433902586519</v>
+        <v>1684.729261175125</v>
       </c>
       <c r="R10">
-        <v>26922.90512327867</v>
+        <v>15162.56335057613</v>
       </c>
       <c r="S10">
-        <v>0.0604120680373967</v>
+        <v>0.0464436578338948</v>
       </c>
       <c r="T10">
-        <v>0.06041206803739672</v>
+        <v>0.04644365783389481</v>
       </c>
     </row>
   </sheetData>
